--- a/biology/Zoologie/Crosbysaurus/Crosbysaurus.xlsx
+++ b/biology/Zoologie/Crosbysaurus/Crosbysaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crobysaurus harrisae
-Crosbysaurus est un genre fossile d'archosauromorphes qui ont vécu entre -210 et -205 millions d'années durant le Trias supérieur des États-Unis et plus précisément dans l'Arizona, le Nouveau-Mexique, la Caroline du Nord, le Texas et l'Utah[1] il nous vient de la Formation de Chinle ainsi que du Groupe Dockum qui se trouvent dans le Sud-Ouest des États-Unis. Ce genre n'est représenté que par son espèce type, Crobysaurus harrisae.
-Crosbysaurus a tout d'abord été identifié comme un dinosaure ornitischien lors de sa première description par Andrew B. Heckert (d) en 2004[2], mais des travaux supplémentaires ont montré qu'il est probablement un Archosauromorphe au vu de ses dents, et qu'il appartiendrait vraisemblablement au groupe des Archosauriformes[3]. Le taxon semble valide car les dents retrouvées sont différentes de celles des autres genres comme Revueltosaurus, Tecovasaurus, Krzyzanowskisaurus, Lucianosaurus, et Protecovasaurus[1].
+Crosbysaurus est un genre fossile d'archosauromorphes qui ont vécu entre -210 et -205 millions d'années durant le Trias supérieur des États-Unis et plus précisément dans l'Arizona, le Nouveau-Mexique, la Caroline du Nord, le Texas et l'Utah il nous vient de la Formation de Chinle ainsi que du Groupe Dockum qui se trouvent dans le Sud-Ouest des États-Unis. Ce genre n'est représenté que par son espèce type, Crobysaurus harrisae.
+Crosbysaurus a tout d'abord été identifié comme un dinosaure ornitischien lors de sa première description par Andrew B. Heckert (d) en 2004, mais des travaux supplémentaires ont montré qu'il est probablement un Archosauromorphe au vu de ses dents, et qu'il appartiendrait vraisemblablement au groupe des Archosauriformes. Le taxon semble valide car les dents retrouvées sont différentes de celles des autres genres comme Revueltosaurus, Tecovasaurus, Krzyzanowskisaurus, Lucianosaurus, et Protecovasaurus.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les dents du Crosbysaurus sont de formes triangulaire avec des dentelures sur les deux bords. Presque tous les spécimens ont des « denticules composés » ; dentelures avec leurs propres subdivisions. Les dentelures sur le bord de fuite (postérieur/distal) de la dent sont toujours plus grandes que le bord d'attaque (antérieur/mésial)[2]. Les dents sont petites, environ 3 à 5 millimètres de long et en raison de leur contour brut, il est présumé que Crosbysaurus était herbivore.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dents du Crosbysaurus sont de formes triangulaire avec des dentelures sur les deux bords. Presque tous les spécimens ont des « denticules composés » ; dentelures avec leurs propres subdivisions. Les dentelures sur le bord de fuite (postérieur/distal) de la dent sont toujours plus grandes que le bord d'attaque (antérieur/mésial). Les dents sont petites, environ 3 à 5 millimètres de long et en raison de leur contour brut, il est présumé que Crosbysaurus était herbivore.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Crosbysaurus Heckert (d), 2004[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Crosbysaurus Heckert (d), 2004.
 </t>
         </is>
       </c>
